--- a/RandomAccess/results/gups.xlsx
+++ b/RandomAccess/results/gups.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18180" yWindow="6400" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>GUP/s</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Native</t>
   </si>
@@ -32,17 +29,60 @@
   <si>
     <t>KVM</t>
   </si>
+  <si>
+    <t>GUPS</t>
+  </si>
+  <si>
+    <t>Single Socket</t>
+  </si>
+  <si>
+    <t>Two-Socket</t>
+  </si>
+  <si>
+    <t>RAW DATA</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Max-Median</t>
+  </si>
+  <si>
+    <t>Median-Min</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -63,13 +103,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -103,19 +175,60 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUP/s</c:v>
+                  <c:v>GUPS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$B$30:$D$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.002742647</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00344742699999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.003177861</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$B$31:$D$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.001244842</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.001961725</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.002061102</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$D$4</c:f>
+              <c:f>Sheet1!$B$18:$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -132,15 +245,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$D$5</c:f>
+              <c:f>Sheet1!$B$29:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.010733656</c:v>
+                  <c:v>0.045320895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.045310911</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.002565459</c:v>
+                  <c:v>0.039108695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -155,11 +271,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2137058904"/>
-        <c:axId val="-2137017144"/>
+        <c:axId val="-2134256104"/>
+        <c:axId val="-2134259432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2137058904"/>
+        <c:axId val="-2134256104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -168,7 +284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137017144"/>
+        <c:crossAx val="-2134259432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -176,18 +292,234 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137017144"/>
+        <c:axId val="-2134259432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Giga</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Updates per Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137058904"/>
+        <c:crossAx val="-2134256104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GUPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$30:$G$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.000501394000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0009806385</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000787058999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$E$31:$G$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.000415919999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000455981500000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000314136000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$18:$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Native</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docker</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.012581883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0122327245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.012370234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2133876776"/>
+        <c:axId val="-2133873800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2133876776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133873800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2133873800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.015"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Giga Updates per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133876776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -208,21 +540,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -231,6 +565,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -561,38 +927,569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D5"/>
+  <dimension ref="A16:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D5"/>
+      <selection activeCell="B19" sqref="B19:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
+    <row r="16" spans="1:7" ht="18">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="18">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="18">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
-        <v>1.0733655999999999E-2</v>
-      </c>
-      <c r="D5">
-        <v>2.565459E-3</v>
+      <c r="F18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18">
+      <c r="A19" s="1"/>
+      <c r="B19">
+        <v>4.5309703E-2</v>
+      </c>
+      <c r="C19">
+        <v>4.7095933E-2</v>
+      </c>
+      <c r="D19">
+        <v>4.0221930000000003E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.2675061E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.2245410999999999E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.2333812E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18">
+      <c r="A20" s="1"/>
+      <c r="B20">
+        <v>4.5332087E-2</v>
+      </c>
+      <c r="C20">
+        <v>4.4749536999999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>3.8957437999999997E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.2673525999999999E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.2720095000000001E-2</v>
+      </c>
+      <c r="G20">
+        <v>1.3157293E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18">
+      <c r="A21" s="1"/>
+      <c r="B21">
+        <v>4.7625186999999999E-2</v>
+      </c>
+      <c r="C21">
+        <v>4.8534490999999999E-2</v>
+      </c>
+      <c r="D21">
+        <v>3.9232158000000003E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.2334766E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.2220038000000001E-2</v>
+      </c>
+      <c r="G21">
+        <v>1.2222177000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18">
+      <c r="A22" s="1"/>
+      <c r="B22">
+        <v>4.5260923000000002E-2</v>
+      </c>
+      <c r="C22">
+        <v>4.3744793999999997E-2</v>
+      </c>
+      <c r="D22">
+        <v>4.2286556000000003E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.3083277000000001E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.2860761E-2</v>
+      </c>
+      <c r="G22">
+        <v>1.2354326000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18">
+      <c r="A23" s="1"/>
+      <c r="B23">
+        <v>4.4114180000000003E-2</v>
+      </c>
+      <c r="C23">
+        <v>4.3349185999999998E-2</v>
+      </c>
+      <c r="D23">
+        <v>3.8985232000000002E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.3032511E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.1776742999999999E-2</v>
+      </c>
+      <c r="G23">
+        <v>1.2621639E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18">
+      <c r="A24" s="1"/>
+      <c r="B24">
+        <v>4.5183625999999998E-2</v>
+      </c>
+      <c r="C24">
+        <v>4.5891810999999998E-2</v>
+      </c>
+      <c r="D24">
+        <v>4.056978E-2</v>
+      </c>
+      <c r="E24">
+        <v>1.2165963E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.2169625999999999E-2</v>
+      </c>
+      <c r="G24">
+        <v>1.2386141999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18">
+      <c r="A25" s="1"/>
+      <c r="B25">
+        <v>4.7563195000000003E-2</v>
+      </c>
+      <c r="C25">
+        <v>4.5825175000000003E-2</v>
+      </c>
+      <c r="D25">
+        <v>3.8976709999999998E-2</v>
+      </c>
+      <c r="E25">
+        <v>1.249024E-2</v>
+      </c>
+      <c r="F25">
+        <v>1.1991949999999999E-2</v>
+      </c>
+      <c r="G25">
+        <v>1.2271242999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18">
+      <c r="A26" s="1"/>
+      <c r="B26">
+        <v>4.4076052999999997E-2</v>
+      </c>
+      <c r="C26">
+        <v>4.4796647000000002E-2</v>
+      </c>
+      <c r="D26">
+        <v>3.7654313000000002E-2</v>
+      </c>
+      <c r="E26">
+        <v>1.2695296E-2</v>
+      </c>
+      <c r="F26">
+        <v>1.2152615E-2</v>
+      </c>
+      <c r="G26">
+        <v>1.2640055000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18">
+      <c r="A27" s="1"/>
+      <c r="B27">
+        <v>4.5389662999999997E-2</v>
+      </c>
+      <c r="C27">
+        <v>4.8758337999999998E-2</v>
+      </c>
+      <c r="D27">
+        <v>3.7047592999999997E-2</v>
+      </c>
+      <c r="E27">
+        <v>1.2488803999999999E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.3213363000000001E-2</v>
+      </c>
+      <c r="G27">
+        <v>1.2713645000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18">
+      <c r="A28" s="1"/>
+      <c r="B28">
+        <v>4.8063542000000001E-2</v>
+      </c>
+      <c r="C28">
+        <v>4.4634644000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>3.9700945000000001E-2</v>
+      </c>
+      <c r="E28">
+        <v>1.2489925000000001E-2</v>
+      </c>
+      <c r="F28">
+        <v>1.2610842000000001E-2</v>
+      </c>
+      <c r="G28">
+        <v>1.2056097999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
+        <f>MEDIAN(B19:B28)</f>
+        <v>4.5320895E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ref="C29:G29" si="0">MEDIAN(C19:C28)</f>
+        <v>4.5310911000000002E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9108694999999999E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2581882999999999E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.22327245E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2370234000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <f>MAX(B19:B28)-B29</f>
+        <v>2.7426470000000008E-3</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ref="C30:G30" si="1">MAX(C19:C28)-C29</f>
+        <v>3.447426999999996E-3</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="1"/>
+        <v>3.177861000000004E-3</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>5.0139400000000223E-4</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>9.8063850000000043E-4</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8705899999999968E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1">
+        <f>B29-MIN(B19:B28)</f>
+        <v>1.2448420000000029E-3</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" ref="C31:G31" si="2">C29-MIN(C19:C28)</f>
+        <v>1.9617250000000044E-3</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0611020000000022E-3</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1591999999999844E-4</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5598150000000087E-4</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="2"/>
+        <v>3.1413600000000132E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34">
+        <v>4.5309703E-2</v>
+      </c>
+      <c r="C34">
+        <v>4.7095933E-2</v>
+      </c>
+      <c r="D34">
+        <v>4.0221930000000003E-2</v>
+      </c>
+      <c r="E34">
+        <v>1.2675061E-2</v>
+      </c>
+      <c r="F34">
+        <v>1.2245410999999999E-2</v>
+      </c>
+      <c r="G34">
+        <v>1.2333812E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35">
+        <v>4.5332087E-2</v>
+      </c>
+      <c r="C35">
+        <v>4.4749536999999999E-2</v>
+      </c>
+      <c r="D35">
+        <v>3.8957437999999997E-2</v>
+      </c>
+      <c r="E35">
+        <v>1.2673525999999999E-2</v>
+      </c>
+      <c r="F35">
+        <v>1.2720095000000001E-2</v>
+      </c>
+      <c r="G35">
+        <v>1.3157293E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36">
+        <v>4.7625186999999999E-2</v>
+      </c>
+      <c r="C36">
+        <v>4.8534490999999999E-2</v>
+      </c>
+      <c r="D36">
+        <v>3.9232158000000003E-2</v>
+      </c>
+      <c r="E36">
+        <v>1.2334766E-2</v>
+      </c>
+      <c r="F36">
+        <v>1.2220038000000001E-2</v>
+      </c>
+      <c r="G36">
+        <v>1.2222177000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37">
+        <v>4.5260923000000002E-2</v>
+      </c>
+      <c r="C37">
+        <v>4.3744793999999997E-2</v>
+      </c>
+      <c r="D37">
+        <v>4.2286556000000003E-2</v>
+      </c>
+      <c r="E37">
+        <v>1.3083277000000001E-2</v>
+      </c>
+      <c r="F37">
+        <v>1.2860761E-2</v>
+      </c>
+      <c r="G37">
+        <v>1.2354326000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38">
+        <v>4.4114180000000003E-2</v>
+      </c>
+      <c r="C38">
+        <v>4.3349185999999998E-2</v>
+      </c>
+      <c r="D38">
+        <v>3.8985232000000002E-2</v>
+      </c>
+      <c r="E38">
+        <v>1.3032511E-2</v>
+      </c>
+      <c r="F38">
+        <v>1.1776742999999999E-2</v>
+      </c>
+      <c r="G38">
+        <v>1.2621639E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39">
+        <v>4.5183625999999998E-2</v>
+      </c>
+      <c r="C39">
+        <v>4.5891810999999998E-2</v>
+      </c>
+      <c r="D39">
+        <v>4.056978E-2</v>
+      </c>
+      <c r="E39">
+        <v>1.2165963E-2</v>
+      </c>
+      <c r="F39">
+        <v>1.2169625999999999E-2</v>
+      </c>
+      <c r="G39">
+        <v>1.2386141999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40">
+        <v>4.7563195000000003E-2</v>
+      </c>
+      <c r="C40">
+        <v>4.5825175000000003E-2</v>
+      </c>
+      <c r="D40">
+        <v>3.8976709999999998E-2</v>
+      </c>
+      <c r="E40">
+        <v>1.249024E-2</v>
+      </c>
+      <c r="F40">
+        <v>1.1991949999999999E-2</v>
+      </c>
+      <c r="G40">
+        <v>1.2271242999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41">
+        <v>4.4076052999999997E-2</v>
+      </c>
+      <c r="C41">
+        <v>4.4796647000000002E-2</v>
+      </c>
+      <c r="D41">
+        <v>3.7654313000000002E-2</v>
+      </c>
+      <c r="E41">
+        <v>1.2695296E-2</v>
+      </c>
+      <c r="F41">
+        <v>1.2152615E-2</v>
+      </c>
+      <c r="G41">
+        <v>1.2640055000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42">
+        <v>4.5389662999999997E-2</v>
+      </c>
+      <c r="C42">
+        <v>4.8758337999999998E-2</v>
+      </c>
+      <c r="D42">
+        <v>3.7047592999999997E-2</v>
+      </c>
+      <c r="E42">
+        <v>1.2488803999999999E-2</v>
+      </c>
+      <c r="F42">
+        <v>1.3213363000000001E-2</v>
+      </c>
+      <c r="G42">
+        <v>1.2713645000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43">
+        <v>4.8063542000000001E-2</v>
+      </c>
+      <c r="C43">
+        <v>4.4634644000000001E-2</v>
+      </c>
+      <c r="D43">
+        <v>3.9700945000000001E-2</v>
+      </c>
+      <c r="E43">
+        <v>1.2489925000000001E-2</v>
+      </c>
+      <c r="F43">
+        <v>1.2610842000000001E-2</v>
+      </c>
+      <c r="G43">
+        <v>1.2056097999999999E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/RandomAccess/results/gups.xlsx
+++ b/RandomAccess/results/gups.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Native</t>
   </si>
@@ -42,13 +42,10 @@
     <t>RAW DATA</t>
   </si>
   <si>
-    <t>Median</t>
+    <t>Mean</t>
   </si>
   <si>
-    <t>Max-Median</t>
-  </si>
-  <si>
-    <t>Median-Min</t>
+    <t>SD</t>
   </si>
 </sst>
 </file>
@@ -103,8 +100,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -127,7 +126,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -135,6 +134,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -142,6 +142,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -196,13 +197,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.002742647</c:v>
+                    <c:v>0.00144049876440191</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.00344742699999999</c:v>
+                    <c:v>0.00187314187556606</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.003177861</c:v>
+                    <c:v>0.00147609522979863</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -214,13 +215,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.001244842</c:v>
+                    <c:v>0.00144049876440191</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.001961725</c:v>
+                    <c:v>0.00187314187556606</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.002061102</c:v>
+                    <c:v>0.00147609522979863</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -250,13 +251,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.045320895</c:v>
+                  <c:v>0.0457918159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.045310911</c:v>
+                  <c:v>0.0457380556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.039108695</c:v>
+                  <c:v>0.0393632655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,11 +272,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2134256104"/>
-        <c:axId val="-2134259432"/>
+        <c:axId val="2082641032"/>
+        <c:axId val="2137592696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2134256104"/>
+        <c:axId val="2082641032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -284,7 +285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134259432"/>
+        <c:crossAx val="2137592696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -292,7 +293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134259432"/>
+        <c:axId val="2137592696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -327,7 +328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134256104"/>
+        <c:crossAx val="2082641032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -391,13 +392,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.000501394000000002</c:v>
+                    <c:v>0.000285644660726283</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0009806385</c:v>
+                    <c:v>0.000440471497297107</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.000787058999999999</c:v>
+                    <c:v>0.000315264345606456</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -409,13 +410,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.000415919999999998</c:v>
+                    <c:v>0.000285644660726283</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.000455981500000001</c:v>
+                    <c:v>0.000440471497297107</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.000314136000000001</c:v>
+                    <c:v>0.000315264345606456</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -445,13 +446,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.012581883</c:v>
+                  <c:v>0.0126129369</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0122327245</c:v>
+                  <c:v>0.0123961444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.012370234</c:v>
+                  <c:v>0.012475643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,11 +467,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2133876776"/>
-        <c:axId val="-2133873800"/>
+        <c:axId val="2137630584"/>
+        <c:axId val="2137666040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2133876776"/>
+        <c:axId val="2137630584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,7 +480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133873800"/>
+        <c:crossAx val="2137666040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -487,7 +488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133873800"/>
+        <c:axId val="2137666040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.015"/>
@@ -519,7 +520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133876776"/>
+        <c:crossAx val="2137630584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -930,7 +931,7 @@
   <dimension ref="A16:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:G28"/>
+      <selection activeCell="C29" sqref="C29:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1201,28 +1202,28 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <f>MEDIAN(B19:B28)</f>
-        <v>4.5320895E-2</v>
+        <f>AVERAGE(B19:B28)</f>
+        <v>4.5791815900000005E-2</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ref="C29:G29" si="0">MEDIAN(C19:C28)</f>
-        <v>4.5310911000000002E-2</v>
+        <f t="shared" ref="C29:G29" si="0">AVERAGE(C19:C28)</f>
+        <v>4.5738055600000008E-2</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>3.9108694999999999E-2</v>
+        <v>3.9363265500000001E-2</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>1.2581882999999999E-2</v>
+        <v>1.2612936900000002E-2</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>1.22327245E-2</v>
+        <v>1.23961444E-2</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
-        <v>1.2370234000000001E-2</v>
+        <v>1.2475643E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18">
@@ -1230,57 +1231,57 @@
         <v>8</v>
       </c>
       <c r="B30" s="1">
-        <f>MAX(B19:B28)-B29</f>
-        <v>2.7426470000000008E-3</v>
+        <f>STDEV(B19:B28)</f>
+        <v>1.4404987644019119E-3</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" ref="C30:G30" si="1">MAX(C19:C28)-C29</f>
-        <v>3.447426999999996E-3</v>
+        <f t="shared" ref="C30:G30" si="1">STDEV(C19:C28)</f>
+        <v>1.873141875566065E-3</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>3.177861000000004E-3</v>
+        <v>1.4760952297986339E-3</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>5.0139400000000223E-4</v>
+        <v>2.8564466072628308E-4</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
-        <v>9.8063850000000043E-4</v>
+        <v>4.4047149729710763E-4</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="1"/>
-        <v>7.8705899999999968E-4</v>
+        <v>3.1526434560645588E-4</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1">
-        <f>B29-MIN(B19:B28)</f>
-        <v>1.2448420000000029E-3</v>
+        <f>STDEV(B19:B28)</f>
+        <v>1.4404987644019119E-3</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" ref="C31:G31" si="2">C29-MIN(C19:C28)</f>
-        <v>1.9617250000000044E-3</v>
+        <f t="shared" ref="C31:G31" si="2">STDEV(C19:C28)</f>
+        <v>1.873141875566065E-3</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="2"/>
-        <v>2.0611020000000022E-3</v>
+        <v>1.4760952297986339E-3</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="2"/>
-        <v>4.1591999999999844E-4</v>
+        <v>2.8564466072628308E-4</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="2"/>
-        <v>4.5598150000000087E-4</v>
+        <v>4.4047149729710763E-4</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="2"/>
-        <v>3.1413600000000132E-4</v>
+        <v>3.1526434560645588E-4</v>
       </c>
     </row>
     <row r="34" spans="2:7">
